--- a/DB設計書_エンティティ一覧E-R図.xlsx
+++ b/DB設計書_エンティティ一覧E-R図.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinao\Desktop\学校用\2023\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinao\Desktop\学校用\2023\Github\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B17815-28B9-4FFE-9DDB-B52BD631E95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537505A2-F6A6-47BF-AFC5-43DD10A70EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2265" windowWidth="14055" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="エンティティ一覧E-R図" sheetId="11" r:id="rId1"/>
@@ -28,21 +28,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>バージョン</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>v1.0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>20xx/xx/xx</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>xx</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -181,72 +173,23 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>○○システム</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>○○システム　データモデル設計書</t>
-    <rPh sb="13" eb="15">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>○○システムにおけるデータモデルを示す</t>
-    <rPh sb="17" eb="18">
-      <t>シメ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>データベース設計書</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>itemid</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>img</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>quantity</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>material</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>quantity</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>item</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>itemrm</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>rmid</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -264,6 +207,81 @@
     <rPh sb="0" eb="2">
       <t>ソザイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マスター</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イベント</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#rmid</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>*quantity</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>*name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> img</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#itemid</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小林晏陽</t>
+    <rPh sb="0" eb="4">
+      <t>コバヤシアンヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小林晏陽</t>
+    <rPh sb="0" eb="4">
+      <t>コバヤシアンヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>システム</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>データモデル設計書</t>
+    <rPh sb="6" eb="8">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>データモデルを示す</t>
+    <rPh sb="7" eb="8">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ｍaterial</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> name</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -570,7 +588,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -636,12 +654,24 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -660,19 +690,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1151,8 +1172,8 @@
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="121" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="121" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -1167,54 +1188,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="A1" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="24"/>
+      <c r="A2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="27"/>
       <c r="C2" s="15" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="15" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="15" t="s">
-        <v>7</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="F3" s="36">
+        <v>45302</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="24"/>
+      <c r="A4" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="27"/>
       <c r="C4" s="15" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="17" t="s">
@@ -1225,32 +1246,36 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="24"/>
+      <c r="A5" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="27"/>
       <c r="C5" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="18"/>
+        <v>10</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="24"/>
+      <c r="A6" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="27"/>
       <c r="C6" s="15" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="18"/>
+        <v>12</v>
+      </c>
+      <c r="F6" s="35">
+        <v>45306</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
@@ -1262,7 +1287,7 @@
     </row>
     <row r="8" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -1272,21 +1297,21 @@
     </row>
     <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="D9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="E9" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
@@ -1294,11 +1319,13 @@
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
+        <v>22</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
@@ -1306,75 +1333,81 @@
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
+        <v>21</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>3</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
+        <v>23</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1388,40 +1421,39 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
-      <c r="B20" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>31</v>
+      <c r="B20" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
-      <c r="B21" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>26</v>
+      <c r="B21" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
-      <c r="B22" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>28</v>
+      <c r="B22" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
-      <c r="B23" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="35"/>
+      <c r="B23" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -1434,41 +1466,41 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
-      <c r="B26" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>35</v>
+      <c r="B26" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>24</v>
       </c>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
-      <c r="B27" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>26</v>
+      <c r="B27" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
-      <c r="B28" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>36</v>
+      <c r="B28" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
-      <c r="B29" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>30</v>
+      <c r="B29" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="F29" s="3"/>
     </row>
@@ -1638,11 +1670,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
@@ -1653,6 +1680,11 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1667,15 +1699,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010057786030B183FF46A6A3A32A802AE605" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ed896d2fd23f8e3802b904b0fb0347aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f87b90b8-3799-4f6b-b8f5-f4011f5d303d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9eb182593051a7fd459fde2ee2e6bf8b" ns2:_="">
     <xsd:import namespace="f87b90b8-3799-4f6b-b8f5-f4011f5d303d"/>
@@ -1819,6 +1842,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1828,14 +1860,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B43B84-1E77-4C49-90BB-0FD2422C5C60}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{484C079A-BA70-4A41-8707-95A79F249F61}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1849,6 +1873,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B43B84-1E77-4C49-90BB-0FD2422C5C60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
